--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BB2444-E0BB-42E7-AD23-F958DA198DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E1E553-92A0-4E46-B9C6-2A9CFD947217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>MB_Unicredit</t>
+  </si>
+  <si>
+    <t>Ak Nordic</t>
+  </si>
+  <si>
+    <t>Azeta</t>
   </si>
 </sst>
 </file>
@@ -642,20 +648,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -677,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -688,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -699,9 +705,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -710,229 +716,229 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -941,9 +947,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -952,14 +958,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E1E553-92A0-4E46-B9C6-2A9CFD947217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BABB65-2744-4562-97FA-69E1D212FE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="5760" yWindow="1044" windowWidth="17280" windowHeight="8880" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -227,9 +227,6 @@
     <t>00488410010</t>
   </si>
   <si>
-    <t>TIM S.p.A. Consumer</t>
-  </si>
-  <si>
     <t>Creditech</t>
   </si>
   <si>
@@ -255,16 +252,70 @@
   </si>
   <si>
     <t>Azeta</t>
+  </si>
+  <si>
+    <t>MBCredit</t>
+  </si>
+  <si>
+    <t>4Mori Sardegna SPV SRL</t>
+  </si>
+  <si>
+    <t>4Mori Sardegna S.r.l.</t>
+  </si>
+  <si>
+    <t>04946080266</t>
+  </si>
+  <si>
+    <t>SIRIO NPL S.R.L.</t>
+  </si>
+  <si>
+    <t>05122460263</t>
+  </si>
+  <si>
+    <t>LEX S.R.L.</t>
+  </si>
+  <si>
+    <t>POS S.R.L.</t>
+  </si>
+  <si>
+    <t>PES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,9 +362,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -648,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +717,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +727,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -683,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -694,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -705,9 +764,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -716,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -726,8 +785,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -737,10 +799,13 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -748,8 +813,11 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -759,8 +827,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -771,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -782,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -792,8 +863,11 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -803,8 +877,11 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -814,8 +891,11 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -825,8 +905,11 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -836,8 +919,11 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -847,8 +933,11 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -858,8 +947,11 @@
       <c r="C18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -869,8 +961,11 @@
       <c r="C19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -880,8 +975,11 @@
       <c r="C20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -891,8 +989,11 @@
       <c r="C21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -902,8 +1003,11 @@
       <c r="C22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -913,8 +1017,11 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -924,74 +1031,146 @@
       <c r="C24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>67</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
       <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BABB65-2744-4562-97FA-69E1D212FE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234101A4-BBB7-4784-9993-027A1ECDB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1044" windowWidth="17280" windowHeight="8880" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>PES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intesa </t>
+  </si>
+  <si>
+    <t>Accedo</t>
   </si>
 </sst>
 </file>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +839,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -841,55 +847,55 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -897,13 +903,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -911,13 +917,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -925,13 +931,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -939,13 +945,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -953,13 +959,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -967,13 +973,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -981,13 +987,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -995,13 +1001,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1009,13 +1015,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1023,13 +1029,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1037,13 +1043,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1051,13 +1057,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>64</v>
@@ -1121,13 +1127,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1135,38 +1141,66 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234101A4-BBB7-4784-9993-027A1ECDB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42B1D4-CF9D-4085-9186-18D247EFEF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Accedo</t>
+  </si>
+  <si>
+    <t>SIRIO</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,25 +1185,36 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>78</v>
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>80</v>
+      <c r="A37" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42B1D4-CF9D-4085-9186-18D247EFEF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39760E05-9F7D-4562-B622-77A7259BDE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>SIRIO</t>
+  </si>
+  <si>
+    <t>4Mori</t>
   </si>
 </sst>
 </file>
@@ -713,20 +716,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +743,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -751,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -762,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -773,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -784,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -798,7 +801,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -812,7 +815,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -840,7 +843,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -854,7 +857,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -868,7 +871,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -879,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -890,7 +893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -918,7 +921,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -932,7 +935,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -960,7 +963,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -974,7 +977,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -988,7 +991,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1002,7 +1005,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1016,7 +1019,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1044,7 +1047,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1058,7 +1061,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1072,7 +1075,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1086,7 +1089,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1128,7 +1131,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1156,7 +1159,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1197,23 +1200,34 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39760E05-9F7D-4562-B622-77A7259BDE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85D913-E78F-4A18-8C26-AE8E56614FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="-36" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>4Mori</t>
+  </si>
+  <si>
+    <t>TIM</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1233,17 @@
         <v>75</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85D913-E78F-4A18-8C26-AE8E56614FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C982B3-7E05-4C8B-983F-EA63704FAB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -294,13 +294,25 @@
   </si>
   <si>
     <t>TIM</t>
+  </si>
+  <si>
+    <t>LEX</t>
+  </si>
+  <si>
+    <t>Iren</t>
+  </si>
+  <si>
+    <t>IREN</t>
+  </si>
+  <si>
+    <t>01178580997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +346,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -377,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,6 +403,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -719,20 +739,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +766,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -757,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -768,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -779,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -790,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -804,7 +824,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -818,7 +838,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -832,7 +852,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -846,7 +866,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -860,7 +880,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -874,7 +894,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -885,7 +905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -896,7 +916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -910,7 +930,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -924,7 +944,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -938,7 +958,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -952,7 +972,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -966,7 +986,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -980,7 +1000,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -994,7 +1014,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1028,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1022,7 +1042,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1036,7 +1056,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1050,7 +1070,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1064,7 +1084,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1078,7 +1098,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1092,7 +1112,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1106,7 +1126,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1120,7 +1140,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1134,7 +1154,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1148,7 +1168,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1162,7 +1182,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1176,7 +1196,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1190,7 +1210,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1203,26 +1223,32 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="C36">
+        <v>10708860969</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1233,7 +1259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1242,6 +1268,17 @@
       </c>
       <c r="C40" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/cf_piva_f24.xlsx
+++ b/Resources/cf_piva_f24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleonora.zarrilli\Documents\projects\Scraping_ade\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sistemiainfo-my.sharepoint.com/personal/claudia_esposito_iqera_it/Documents/Documenti/Scraping_ade/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C982B3-7E05-4C8B-983F-EA63704FAB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{58C982B3-7E05-4C8B-983F-EA63704FAB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A468A00-649E-4923-97C7-32D08498F090}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3009B815-4D43-407A-B5AD-B57DE307344F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>Studio Affidatario</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>01178580997</t>
+  </si>
+  <si>
+    <t>a2a</t>
+  </si>
+  <si>
+    <t>A2A ENERGIA S.P.A.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +411,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -739,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91C704-F445-4D5C-8A0E-4C46473ED17E}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,6 +1288,17 @@
         <v>89</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="9">
+        <v>12883420155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
